--- a/Мои тесты ВК.xlsx
+++ b/Мои тесты ВК.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
   <si>
     <t xml:space="preserve">passed</t>
   </si>
@@ -1038,7 +1038,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1131,13 +1131,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1310,11 +1303,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1454,8 +1447,8 @@
   </sheetPr>
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B46" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E48" activeCellId="0" sqref="E48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1467,7 +1460,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="41.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="1.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="2.16"/>
@@ -1584,7 +1577,9 @@
       <c r="I3" s="15"/>
       <c r="J3" s="14"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="17"/>
+      <c r="L3" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M3" s="9"/>
       <c r="N3" s="17"/>
       <c r="O3" s="9"/>
@@ -1620,7 +1615,9 @@
       <c r="I4" s="18"/>
       <c r="J4" s="14"/>
       <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="L4" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M4" s="9"/>
       <c r="N4" s="17"/>
       <c r="O4" s="9"/>
@@ -1656,7 +1653,9 @@
       <c r="I5" s="15"/>
       <c r="J5" s="14"/>
       <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M5" s="9"/>
       <c r="N5" s="17"/>
       <c r="O5" s="9"/>
@@ -1692,7 +1691,9 @@
       <c r="I6" s="15"/>
       <c r="J6" s="14"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="L6" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M6" s="9"/>
       <c r="N6" s="17"/>
       <c r="O6" s="9"/>
@@ -1728,7 +1729,9 @@
       <c r="I7" s="15"/>
       <c r="J7" s="14"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M7" s="9"/>
       <c r="N7" s="17"/>
       <c r="O7" s="9"/>
@@ -1764,7 +1767,9 @@
       <c r="I8" s="15"/>
       <c r="J8" s="14"/>
       <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="9"/>
       <c r="N8" s="17"/>
       <c r="O8" s="9"/>
@@ -1800,7 +1805,9 @@
       <c r="I9" s="15"/>
       <c r="J9" s="14"/>
       <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="L9" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="17"/>
       <c r="O9" s="9"/>
@@ -1836,7 +1843,9 @@
       <c r="I10" s="15"/>
       <c r="J10" s="14"/>
       <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="17"/>
       <c r="O10" s="9"/>
@@ -1871,7 +1880,9 @@
       <c r="I11" s="15"/>
       <c r="J11" s="14"/>
       <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="9"/>
       <c r="N11" s="17"/>
       <c r="O11" s="9"/>
@@ -1906,7 +1917,9 @@
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
       <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="9"/>
       <c r="N12" s="17"/>
       <c r="O12" s="9"/>
@@ -1942,7 +1955,9 @@
       <c r="I13" s="15"/>
       <c r="J13" s="14"/>
       <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="L13" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="17"/>
       <c r="O13" s="9"/>
@@ -1978,7 +1993,9 @@
       <c r="I14" s="15"/>
       <c r="J14" s="14"/>
       <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="17"/>
       <c r="O14" s="9"/>
@@ -2012,7 +2029,9 @@
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
       <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="L15" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="9"/>
       <c r="N15" s="17"/>
       <c r="O15" s="9"/>
@@ -2046,7 +2065,9 @@
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="L16" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="9"/>
       <c r="N16" s="17"/>
       <c r="O16" s="9"/>
@@ -2080,7 +2101,9 @@
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="L17" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="9"/>
       <c r="N17" s="17"/>
       <c r="O17" s="9"/>
@@ -2114,7 +2137,9 @@
       <c r="I18" s="15"/>
       <c r="J18" s="14"/>
       <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="9"/>
       <c r="N18" s="17"/>
       <c r="O18" s="9"/>
@@ -2148,7 +2173,9 @@
       <c r="I19" s="15"/>
       <c r="J19" s="14"/>
       <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="L19" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="9"/>
       <c r="N19" s="17"/>
       <c r="O19" s="9"/>
@@ -2182,7 +2209,9 @@
       <c r="I20" s="15"/>
       <c r="J20" s="14"/>
       <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="L20" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="9"/>
       <c r="N20" s="17"/>
       <c r="O20" s="9"/>
@@ -2216,7 +2245,9 @@
       <c r="I21" s="15"/>
       <c r="J21" s="14"/>
       <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
+      <c r="L21" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="17"/>
       <c r="O21" s="9"/>
@@ -2250,7 +2281,9 @@
       <c r="I22" s="15"/>
       <c r="J22" s="14"/>
       <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
+      <c r="L22" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="9"/>
       <c r="N22" s="17"/>
       <c r="O22" s="9"/>
@@ -2283,7 +2316,9 @@
       <c r="I23" s="15"/>
       <c r="J23" s="14"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="M23" s="9"/>
       <c r="N23" s="17"/>
       <c r="O23" s="9"/>
